--- a/medicine/Enfance/Jean-François_Martin_(illustrateur)/Jean-François_Martin_(illustrateur).xlsx
+++ b/medicine/Enfance/Jean-François_Martin_(illustrateur)/Jean-François_Martin_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
+          <t>Jean-François_Martin_(illustrateur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Martin est un illustrateur français, né à Paris le 26 juillet 1967.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
+          <t>Jean-François_Martin_(illustrateur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Martin étudie les arts graphiques à Paris au lycée technologique Maximilien-Vox, rue Madame, et à l'École nationale supérieure des arts appliqués. 
 Il commence sa carrière comme directeur artistique chez Bayard presse, puis se lance dans l’illustration en travaillant à la fois pour l'édition (Thierry Magnier, Hélium, Albin Michel, Flammarion…), la presse française  (Libération,Télérama, Le Monde, XXI...) et internationale (The New York Times, The New Yorker, The Wall Street Journal...). 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
+          <t>Jean-François_Martin_(illustrateur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustrations de livres jeunesse
-1995 : Gazoline et Grenadine, de Jean-Loup Craipeau, Nathan Jeunesse
+          <t>Illustrations de livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1995 : Gazoline et Grenadine, de Jean-Loup Craipeau, Nathan Jeunesse
 1996 : Les Animaux du monde, Nathan
 1996 : Le Zoo, Nathan, star du rock
 1996 : Les Animaux autour de nous, Nathan
@@ -565,7 +584,7 @@
 2000 : La Rentrée de la petite sorcière, de Thomas Scotto, Bayard jeunesse
 2000 : La Jungle, de Marie Aubinais, Nathan
 2000 : Le Goût et la Cuisine, de Pascal Desjours, Albin Michel
-2000 : L'Ogre nouveau est arrivé[1], de René Gouichoux, Nathan Jeunesse
+2000 : L'Ogre nouveau est arrivé, de René Gouichoux, Nathan Jeunesse
 2000 : Qu'est-ce que c'est que ce cirque !, d'Hubert Ben Kemoun, Flammarion
 2001 : Un bisou, sorcière !, de Sarah Cohen-Scali, Flammarion
 2001 : Les Gros Mots de la sorcière, de Clair Arthur, Nathan
@@ -622,9 +641,43 @@
 2016 : A la lettre, un alphabet poétique, de Bernard Friot, Milan
 2016 : Souvenirs de Marcel au Grand Hôtel, de Sophie Strady, Éditions Hélium
 2016 : La Guitare dans la vitrine (livre CD), d'Olivier Libaux, Actes Sud Junior
-2016 : Histoires naturelles, de Jules Renard, Grasset Jeunesse
-Illustrations de recueils de textes, maximes et poèmes
-1999 : Petites Chansons pour tous les jours, de Sylvie Albert, Nathan Jeunesse
+2016 : Histoires naturelles, de Jules Renard, Grasset Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-François_Martin_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations de recueils de textes, maximes et poèmes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1999 : Petites Chansons pour tous les jours, de Sylvie Albert, Nathan Jeunesse
 2002 : Le Chaplin, l’œil et le mot, Éditions Mango Jeunesse
 2002 : Mots cachés à deviner, d'Hélène Benait, Actes Sud
 2003 : Le Tardieu, Éditions Mango Jeunesse
@@ -637,9 +690,43 @@
 2009 : Pensées sauvages pour enfants cultivés, de Franck Prévot, Éditions l'Edune
 2010 : Fables d’Ésope, Milan
 2016 : 22 Lettres imaginaires d'écrivains bien réels, de Maria Negroni, Éditions Noir sur Blanc
-2017 : Défense de Prosper Brouillon, de Eric Chevillard, Editions Noir sur Blanc
-Illustrations diverses
-2003 : C'est de la drogue ! Produits psychoactifs et dépendance, de F. de Guibert et D. Pontégnier, Autrement Junior
+2017 : Défense de Prosper Brouillon, de Eric Chevillard, Editions Noir sur Blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-François_Martin_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations diverses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2003 : C'est de la drogue ! Produits psychoactifs et dépendance, de F. de Guibert et D. Pontégnier, Autrement Junior
 2005 : L'Appareil, Éditions de la Pastèque (Québec)
 2008 : Les Refrains de mon enfance : Les années 1950 en chansons, de Marie Saint Dizier, Autrement
 2008 : Lexicom : Les 3 500 mots du marketing publicitaire, de la communication et des techniques de production, de Alain Millon, Bréal
@@ -651,31 +738,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-François_Martin_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Martin_(illustrateur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2011 : Fables et autres balivernes, exposition à la Galerie-Boutique La Niche, à Paris
 2011 : Les Fables d’Ésope, exposition des dessins originaux du livre d'Ésope, dans le cadre des Rencontres Chaland, Nérac
